--- a/notebooks_resultados_actuales/Recall_resultados_softmax_2_labels.xlsx
+++ b/notebooks_resultados_actuales/Recall_resultados_softmax_2_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/963db75de59c3a5b/TFG/Codigo/Resultados actuales (softmax 2labels) - 13 Junio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3145" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F947F3EE-1F59-4531-9354-2366C5AE5FF2}"/>
+  <xr:revisionPtr revIDLastSave="3706" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C381C452-9225-4E39-99E6-276E0F2DE968}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bert" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -394,11 +394,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,6 +440,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,7 +457,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,28 +875,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E26A9-A2F2-404A-999E-6E77A4CF5C8B}">
   <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -922,7 +934,7 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -964,7 +976,7 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1016,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1057,7 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1097,7 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1137,7 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1167,7 +1179,7 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1207,7 +1219,7 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1259,7 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1299,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1340,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1372,7 +1384,7 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1426,7 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1456,7 +1468,7 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1510,7 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1537,14 +1549,14 @@
         <f>AVERAGE(E23,I23,M23)</f>
         <v>0.71038333333333326</v>
       </c>
-      <c r="S23" s="19" t="s">
+      <c r="S23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="U23" s="8"/>
       <c r="W23" s="8"/>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1586,7 +1598,7 @@
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1638,7 @@
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1678,7 @@
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +1718,7 @@
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -1765,28 +1777,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9C387-18AF-4EA2-B4B7-6B256C0E1E13}">
   <dimension ref="B2:Z30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Q30"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1826,588 +1838,828 @@
       <c r="R3" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.83915000000000006</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.6623</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.72698333333333343</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.83955000000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.6633</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.68405000000000005</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.72896666666666665</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.83855000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.6845</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.6764</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.72434999999999994</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.8367</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.66565000000000007</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.6492</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.73015000000000008</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.83994999999999997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.65989999999999993</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.72915000000000008</v>
       </c>
       <c r="T9" s="10"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.54864999999999997</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.53625</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.7611</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.53979999999999995</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.52524999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.2465</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.53331666666666666</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.52554999999999996</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.52395000000000003</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.53596666666666659</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.72119999999999995</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.57555000000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.53444999999999998</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.752</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.54336666666666666</v>
       </c>
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.55935000000000001</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.3503</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.27610000000000001</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.54764999999999997</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.51905000000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.51344999999999996</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.1573</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.52485000000000004</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.51911666666666667</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.66654999999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.66070000000000007</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.68084999999999996</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.66936666666666655</v>
       </c>
       <c r="T20" s="10"/>
       <c r="X20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.64829999999999999</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.62104999999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.629</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.72850000000000004</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.61904999999999999</v>
       </c>
       <c r="X21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.6472</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.67354999999999998</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.65425000000000011</v>
       </c>
       <c r="X22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.56600000000000006</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.58969999999999989</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.70620000000000005</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.59370000000000001</v>
       </c>
       <c r="S23" s="5"/>
       <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.66395000000000004</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.73134999999999994</v>
       </c>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.66654999999999998</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.66070000000000007</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.68084999999999996</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.66936666666666655</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.64829999999999999</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.62104999999999999</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.62071666666666658</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.6472</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.67354999999999998</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.65425000000000011</v>
       </c>
       <c r="T29" s="10"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.56600000000000006</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.58969999999999989</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.59370000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2430,28 +2682,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF7238-AC9A-4DAC-9CB9-21573789F53B}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2493,438 +2745,618 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.70374999999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.71409999999999996</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.75466666666666671</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.85844999999999994</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.70545000000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.68605000000000005</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.74998333333333334</v>
       </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.75286666666666668</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.85715000000000008</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.70945000000000003</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.7137</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.75340000000000007</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.70404999999999995</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.69029999999999991</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.75281666666666658</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.41125</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.14530000000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.41800000000000004</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.4143</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.41451666666666664</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.60555000000000003</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.40189999999999998</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.62275000000000003</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.60866666666666669</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.55654999999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.3468</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.55811666666666671</v>
       </c>
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.51055000000000006</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.51415</v>
+      </c>
+      <c r="J15" s="15">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.51669999999999994</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.51380000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.55754999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.7792</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.56564999999999999</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.54233500000000001</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.3039</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.78076999999999996</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.55517833333333333</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.33765000000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.3271</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.32784999999999997</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3.3E-3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.33086666666666664</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.64405000000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.71019999999999994</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.79380000000000006</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.71601666666666663</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.66070000000000007</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.70484999999999998</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.7964</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.61329999999999996</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.71335000000000004</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.66205000000000003</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.66490000000000005</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.65920000000000001</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.74530000000000007</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.6885</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.73588333333333333</v>
       </c>
       <c r="X22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.67005000000000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.6492</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.76995000000000002</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.77810000000000001</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.71776666666666677</v>
       </c>
       <c r="T23" s="10"/>
       <c r="X23" s="8"/>
@@ -2936,93 +3368,129 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.72344999999999993</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.7339</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.76741666666666664</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.70079999999999998</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.73429999999999995</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.76639999999999997</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.83935000000000004</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.73385</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.76776666666666671</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -3050,7 +3518,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -3099,28 +3567,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B49FAB-0ACA-47EA-837C-9E6960F12538}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3162,588 +3630,827 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.53825000000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.55448333333333333</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.56814999999999993</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.58994999999999997</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.59533333333333338</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.61434999999999995</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.56390000000000007</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.57725000000000004</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.38090000000000002</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.58516666666666672</v>
       </c>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.435</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.5655</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.3841</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.7298</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.59566666666666668</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.6159</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.3967</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.55774999999999997</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.58135000000000003</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.50013333333333332</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.47815000000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.51885000000000003</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.35270000000000001</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.49743333333333339</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.5111</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.2014</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.50405</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.2303</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.51375000000000004</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.218</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.8095</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.50963333333333338</v>
       </c>
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.50455000000000005</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.49185000000000001</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.7278</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.50290000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.50205</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.2482</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.49775000000000003</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.50403333333333322</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.50214999999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.1701</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.1613</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.49843999999999999</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.81677999999999995</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.50009666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.48365000000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.309</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.6583</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.3276</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.49765000000000004</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.35020000000000001</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.49149999999999999</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.50875000000000004</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.3967</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.4461</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.6089</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.50134999999999996</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.51253333333333329</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.49685000000000001</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.2571</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.51834999999999998</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.255</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.78169999999999995</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.50306666666666666</v>
       </c>
       <c r="T22" s="10"/>
       <c r="X22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.50864999999999994</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.2457</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.50459999999999994</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.79959999999999998</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.50441666666666662</v>
       </c>
       <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="S24" s="5"/>
       <c r="X24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.6794</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.8246</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.63345000000000007</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.62281666666666669</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.64684999999999993</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.57555000000000001</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.60463333333333324</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.63454999999999995</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.4602</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.59488333333333332</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.6298999999999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.5585</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.6139</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.6470499999999999</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.61181666666666656</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.62685000000000002</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.56074999999999997</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.58455000000000001</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.59071666666666667</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
@@ -3769,28 +4476,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CEDD4F-00F4-4759-BADF-925A3EF47615}">
   <dimension ref="A2:Z141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3832,588 +4539,827 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.52295000000000003</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.54605000000000004</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.6321</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.57080000000000009</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.72504999999999997</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.58400000000000007</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.63551666666666673</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.60125000000000006</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.63918333333333333</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.59800000000000009</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.63760000000000006</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.60135000000000005</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.63641666666666674</v>
       </c>
       <c r="T9" s="10"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.50550000000000006</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.23519999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.50714999999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.2392</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.50354999999999994</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.24160000000000001</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.50539999999999996</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.49429999999999996</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.50113333333333332</v>
       </c>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.50265000000000004</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.50975000000000004</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.50266666666666671</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.2031</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.49645</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.1898</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.8014</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.49374999999999997</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="F16" s="4">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.49879999999999997</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.50245000000000006</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.5292</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.50395000000000001</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.50423333333333342</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.51085000000000003</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.40139999999999998</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.4158</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.5022833333333333</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.2387</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.48519999999999996</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.7157</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.50614999999999999</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.2576</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.49468333333333331</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.48154999999999998</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.51550000000000007</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.2611</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.2475</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.50298333333333334</v>
       </c>
       <c r="X22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.48294999999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.6925</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.73670000000000002</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.50368333333333337</v>
       </c>
       <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="S24" s="5"/>
       <c r="T24" s="10"/>
       <c r="X24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.59155000000000002</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.51724999999999999</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.56380000000000008</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.55753333333333333</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.67534999999999989</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.59914999999999996</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.64355000000000007</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.628</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.63934999999999997</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.59705000000000008</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.64505000000000001</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.64776666666666671</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.70435000000000003</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.60975000000000001</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.63864999999999994</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.6509166666666667</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.68945000000000001</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.4637</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.64424999999999999</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.64066666666666672</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
@@ -4422,51 +5368,51 @@
       <c r="M31" s="13"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="20"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="K79" s="14" t="s">
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="K79" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="P79" s="15" t="s">
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="P79" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
       <c r="T79" s="1" t="s">
         <v>3</v>
       </c>
@@ -4501,7 +5447,7 @@
       </c>
     </row>
     <row r="82" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -4532,7 +5478,7 @@
       </c>
     </row>
     <row r="83" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C83" s="14"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4576,7 +5522,7 @@
       </c>
     </row>
     <row r="84" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C84" s="14"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="3" t="s">
         <v>9</v>
       </c>
@@ -4620,7 +5566,7 @@
       </c>
     </row>
     <row r="85" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C85" s="14"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="3" t="s">
         <v>10</v>
       </c>
@@ -4649,7 +5595,7 @@
       </c>
     </row>
     <row r="86" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C86" s="14"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="3" t="s">
         <v>11</v>
       </c>
@@ -4678,7 +5624,7 @@
       </c>
     </row>
     <row r="89" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -4709,7 +5655,7 @@
       </c>
     </row>
     <row r="90" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C90" s="14"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="3" t="s">
         <v>8</v>
       </c>
@@ -4753,7 +5699,7 @@
       </c>
     </row>
     <row r="91" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C91" s="14"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="3" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +5743,7 @@
       </c>
     </row>
     <row r="92" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C92" s="14"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="3" t="s">
         <v>10</v>
       </c>
@@ -4826,7 +5772,7 @@
       </c>
     </row>
     <row r="93" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C93" s="14"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="3" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +5801,7 @@
       </c>
     </row>
     <row r="96" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -4886,7 +5832,7 @@
       </c>
     </row>
     <row r="97" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C97" s="14"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="3" t="s">
         <v>8</v>
       </c>
@@ -4930,7 +5876,7 @@
       </c>
     </row>
     <row r="98" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C98" s="14"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="3" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +5920,7 @@
       </c>
     </row>
     <row r="99" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C99" s="14"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="3" t="s">
         <v>10</v>
       </c>
@@ -5003,7 +5949,7 @@
       </c>
     </row>
     <row r="100" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C100" s="14"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5033,7 +5979,7 @@
       </c>
     </row>
     <row r="103" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5064,7 +6010,7 @@
       </c>
     </row>
     <row r="104" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C104" s="14"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="3" t="s">
         <v>8</v>
       </c>
@@ -5093,7 +6039,7 @@
       </c>
     </row>
     <row r="105" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C105" s="14"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="3" t="s">
         <v>9</v>
       </c>
@@ -5122,7 +6068,7 @@
       </c>
     </row>
     <row r="106" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C106" s="14"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="3" t="s">
         <v>10</v>
       </c>
@@ -5151,7 +6097,7 @@
       </c>
     </row>
     <row r="107" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C107" s="14"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="3" t="s">
         <v>11</v>
       </c>
@@ -5180,21 +6126,21 @@
       </c>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="K113" s="14" t="s">
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="K113" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="P113" s="15" t="s">
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="P113" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q113" s="15"/>
-      <c r="R113" s="15"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="17"/>
       <c r="T113" s="1" t="s">
         <v>3</v>
       </c>
@@ -5229,7 +6175,7 @@
       </c>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -5272,7 +6218,7 @@
       </c>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C117" s="14"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="3" t="s">
         <v>8</v>
       </c>
@@ -5313,7 +6259,7 @@
       </c>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C118" s="14"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="3" t="s">
         <v>9</v>
       </c>
@@ -5355,7 +6301,7 @@
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C119" s="14"/>
+      <c r="C119" s="16"/>
       <c r="D119" s="3" t="s">
         <v>10</v>
       </c>
@@ -5396,7 +6342,7 @@
       </c>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C120" s="14"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="3" t="s">
         <v>11</v>
       </c>
@@ -5437,7 +6383,7 @@
       </c>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -5480,7 +6426,7 @@
       </c>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C124" s="14"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="3" t="s">
         <v>8</v>
       </c>
@@ -5521,7 +6467,7 @@
       </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C125" s="14"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="3" t="s">
         <v>9</v>
       </c>
@@ -5562,7 +6508,7 @@
       </c>
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C126" s="14"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="3" t="s">
         <v>10</v>
       </c>
@@ -5603,7 +6549,7 @@
       </c>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C127" s="14"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="3" t="s">
         <v>11</v>
       </c>
@@ -5644,7 +6590,7 @@
       </c>
     </row>
     <row r="130" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -5687,7 +6633,7 @@
       </c>
     </row>
     <row r="131" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C131" s="14"/>
+      <c r="C131" s="16"/>
       <c r="D131" s="3" t="s">
         <v>8</v>
       </c>
@@ -5728,7 +6674,7 @@
       </c>
     </row>
     <row r="132" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C132" s="14"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="3" t="s">
         <v>9</v>
       </c>
@@ -5769,7 +6715,7 @@
       </c>
     </row>
     <row r="133" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C133" s="14"/>
+      <c r="C133" s="16"/>
       <c r="D133" s="3" t="s">
         <v>10</v>
       </c>
@@ -5810,7 +6756,7 @@
       </c>
     </row>
     <row r="134" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C134" s="14"/>
+      <c r="C134" s="16"/>
       <c r="D134" s="3" t="s">
         <v>11</v>
       </c>
@@ -5852,7 +6798,7 @@
       </c>
     </row>
     <row r="137" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -5883,7 +6829,7 @@
       </c>
     </row>
     <row r="138" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C138" s="14"/>
+      <c r="C138" s="16"/>
       <c r="D138" s="3" t="s">
         <v>8</v>
       </c>
@@ -5912,7 +6858,7 @@
       </c>
     </row>
     <row r="139" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C139" s="14"/>
+      <c r="C139" s="16"/>
       <c r="D139" s="3" t="s">
         <v>9</v>
       </c>
@@ -5941,7 +6887,7 @@
       </c>
     </row>
     <row r="140" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C140" s="14"/>
+      <c r="C140" s="16"/>
       <c r="D140" s="3" t="s">
         <v>10</v>
       </c>
@@ -5970,7 +6916,7 @@
       </c>
     </row>
     <row r="141" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C141" s="14"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="3" t="s">
         <v>11</v>
       </c>
@@ -6033,28 +6979,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273683D-9349-47F5-A914-A6E49DBBA2D4}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6096,37 +7042,49 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.7429</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.59930000000000005</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.6802999999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.71979999999999988</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6154,7 +7112,7 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -6182,7 +7140,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6211,7 +7169,7 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -6239,7 +7197,7 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -6269,7 +7227,7 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -6297,7 +7255,7 @@
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -6325,7 +7283,7 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -6353,7 +7311,7 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -6381,7 +7339,7 @@
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -6411,7 +7369,7 @@
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -6441,7 +7399,7 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -6471,7 +7429,7 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -6501,7 +7459,7 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -6538,7 +7496,7 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -6568,7 +7526,7 @@
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -6596,7 +7554,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -6624,7 +7582,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -6652,7 +7610,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -6712,21 +7670,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6768,7 +7726,7 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -6798,7 +7756,7 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -6828,7 +7786,7 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -6856,7 +7814,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6885,7 +7843,7 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -6913,7 +7871,7 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -6943,7 +7901,7 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -6971,7 +7929,7 @@
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -6999,7 +7957,7 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -7027,7 +7985,7 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -7059,7 +8017,7 @@
       <c r="V17" s="10"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -7089,7 +8047,7 @@
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -7119,7 +8077,7 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -7149,7 +8107,7 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -7179,7 +8137,7 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -7218,7 +8176,7 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -7248,7 +8206,7 @@
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -7276,7 +8234,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -7304,7 +8262,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -7332,7 +8290,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -7363,21 +8321,21 @@
       <c r="C31" s="12"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="K54" s="14" t="s">
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="K54" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="P54" s="15" t="s">
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="P54" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
       <c r="T54" s="1" t="s">
         <v>3</v>
       </c>
@@ -7412,7 +8370,7 @@
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -7455,7 +8413,7 @@
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C58" s="14"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
@@ -7496,7 +8454,7 @@
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="14"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
@@ -7537,7 +8495,7 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="14"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="3" t="s">
         <v>10</v>
       </c>
@@ -7578,7 +8536,7 @@
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="14"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="3" t="s">
         <v>11</v>
       </c>
@@ -7619,7 +8577,7 @@
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -7662,7 +8620,7 @@
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C65" s="14"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="3" t="s">
         <v>8</v>
       </c>
@@ -7703,7 +8661,7 @@
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C66" s="14"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="3" t="s">
         <v>9</v>
       </c>
@@ -7744,7 +8702,7 @@
       </c>
     </row>
     <row r="67" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C67" s="14"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="3" t="s">
         <v>10</v>
       </c>
@@ -7785,7 +8743,7 @@
       </c>
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C68" s="14"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="3" t="s">
         <v>11</v>
       </c>
@@ -7826,7 +8784,7 @@
       </c>
     </row>
     <row r="71" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -7869,7 +8827,7 @@
       </c>
     </row>
     <row r="72" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="14"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
@@ -7910,7 +8868,7 @@
       </c>
     </row>
     <row r="73" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="14"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
@@ -7951,7 +8909,7 @@
       </c>
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="14"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="3" t="s">
         <v>10</v>
       </c>
@@ -7992,7 +8950,7 @@
       </c>
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C75" s="14"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="3" t="s">
         <v>11</v>
       </c>
@@ -8034,7 +8992,7 @@
       </c>
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -8077,7 +9035,7 @@
       </c>
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C79" s="14"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="3" t="s">
         <v>8</v>
       </c>
@@ -8118,7 +9076,7 @@
       </c>
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C80" s="14"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="3" t="s">
         <v>9</v>
       </c>
@@ -8159,7 +9117,7 @@
       </c>
     </row>
     <row r="81" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C81" s="14"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="3" t="s">
         <v>10</v>
       </c>
@@ -8200,7 +9158,7 @@
       </c>
     </row>
     <row r="82" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C82" s="14"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="3" t="s">
         <v>11</v>
       </c>
@@ -8242,8 +9200,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C26:C30"/>
     <mergeCell ref="C78:C82"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="K54:M54"/>
@@ -8251,6 +9207,8 @@
     <mergeCell ref="C57:C61"/>
     <mergeCell ref="C64:C68"/>
     <mergeCell ref="C71:C75"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C26:C30"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="M2:O2"/>

--- a/notebooks_resultados_actuales/Recall_resultados_softmax_2_labels.xlsx
+++ b/notebooks_resultados_actuales/Recall_resultados_softmax_2_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/963db75de59c3a5b/TFG/Codigo/Resultados actuales (softmax 2labels) - 13 Junio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3706" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C381C452-9225-4E39-99E6-276E0F2DE968}"/>
+  <xr:revisionPtr revIDLastSave="4278" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD21A313-30FB-4EC4-A77C-06C134F158D9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bert" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D71DD7DF-6A94-4FBE-816A-CAF942246BF6}</author>
-    <author>tc={E5D36548-A249-4C8E-A529-9DA4B5862173}</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D71DD7DF-6A94-4FBE-816A-CAF942246BF6}">
@@ -94,16 +93,6 @@
 Comentario:
     Adam con lr 1e-6 y weightdecay=0.1
 Métrica reportada: Recall</t>
-      </text>
-    </comment>
-    <comment ref="U20" authorId="1" shapeId="0" xr:uid="{E5D36548-A249-4C8E-A529-9DA4B5862173}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Vuelve a lanzarlo porque este resultado es muy raro
-Respuesta:
-    Se volvió a lanzar y pasó lo mismo</t>
       </text>
     </comment>
   </commentList>
@@ -221,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="18">
   <si>
     <t>ABOUT</t>
   </si>
@@ -281,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,13 +314,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -409,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,11 +445,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,6 +468,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,12 +812,6 @@
     <text>Adam con lr 1e-6 y weightdecay=0.1
 Métrica reportada: Recall</text>
   </threadedComment>
-  <threadedComment ref="U20" dT="2023-06-12T15:22:17.25" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{E5D36548-A249-4C8E-A529-9DA4B5862173}">
-    <text>Vuelve a lanzarlo porque este resultado es muy raro</text>
-  </threadedComment>
-  <threadedComment ref="U20" dT="2023-07-10T13:45:15.81" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{ECF713FF-578F-4F02-A219-3490527B6174}" parentId="{E5D36548-A249-4C8E-A529-9DA4B5862173}">
-    <text>Se volvió a lanzar y pasó lo mismo</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -875,28 +881,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E26A9-A2F2-404A-999E-6E77A4CF5C8B}">
   <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:J48"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -934,7 +940,7 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -976,7 +982,7 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1022,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1057,7 +1063,7 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1103,7 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1143,7 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1179,7 +1185,7 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1225,7 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1265,7 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1305,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1346,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1384,7 +1390,7 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1432,7 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1474,7 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1562,7 @@
       <c r="W23" s="8"/>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1598,7 +1604,7 @@
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1644,7 @@
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1684,7 @@
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1718,7 +1724,7 @@
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -1777,28 +1783,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9C387-18AF-4EA2-B4B7-6B256C0E1E13}">
   <dimension ref="B2:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:G49"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13:Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1844,7 @@
       <c r="R3" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1880,7 +1886,7 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1926,7 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +1966,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2006,7 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2040,8 +2046,11 @@
       </c>
       <c r="T9" s="10"/>
     </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="W11" s="27"/>
+    </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2083,7 +2092,7 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2123,7 +2132,7 @@
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2172,7 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2201,10 +2210,9 @@
         <f>AVERAGE(E15,I15,M15)</f>
         <v>0.54336666666666666</v>
       </c>
-      <c r="T15" s="10"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -2242,9 +2250,10 @@
         <f>AVERAGE(E16,I16,M16)</f>
         <v>0.54764999999999997</v>
       </c>
+      <c r="W16" s="27"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2284,11 +2293,10 @@
         <f>AVERAGE(E19,I19,M19)</f>
         <v>0.51911666666666667</v>
       </c>
-      <c r="X19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2327,11 +2335,10 @@
         <v>0.66936666666666655</v>
       </c>
       <c r="T20" s="10"/>
-      <c r="X20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -2369,11 +2376,11 @@
         <f>AVERAGE(E21,I21,M21)</f>
         <v>0.61904999999999999</v>
       </c>
-      <c r="X21" s="7"/>
+      <c r="X21" s="27"/>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -2415,7 +2422,7 @@
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -2459,7 +2466,7 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2502,7 +2509,7 @@
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2549,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2589,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -2623,7 +2630,7 @@
       <c r="T29" s="10"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -2682,28 +2689,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF7238-AC9A-4DAC-9CB9-21573789F53B}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:I49"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2752,7 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2787,7 +2794,7 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +2835,7 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2875,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +2915,7 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2955,7 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2990,7 +2997,7 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3037,7 @@
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -3068,10 +3075,10 @@
         <f>AVERAGE(E14,I14,M14)</f>
         <v>0.55811666666666671</v>
       </c>
-      <c r="T14" s="10"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3118,7 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -3150,8 +3157,14 @@
         <v>0.55517833333333333</v>
       </c>
     </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+    </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3191,9 +3204,13 @@
         <f>AVERAGE(E19,I19,M19)</f>
         <v>0.33086666666666664</v>
       </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -3231,11 +3248,15 @@
         <f>AVERAGE(E20,I20,M20)</f>
         <v>0.71601666666666663</v>
       </c>
-      <c r="X20" s="8"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -3273,11 +3294,12 @@
         <f>AVERAGE(E21,I21,M21)</f>
         <v>0.71335000000000004</v>
       </c>
-      <c r="X21" s="8"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -3315,11 +3337,12 @@
         <f>AVERAGE(E22,I22,M22)</f>
         <v>0.73588333333333333</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -3359,7 +3382,6 @@
         <v>0.71776666666666677</v>
       </c>
       <c r="T23" s="10"/>
-      <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
@@ -3368,7 +3390,7 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3410,7 +3432,7 @@
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -3450,7 +3472,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -3490,59 +3512,83 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.8478</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.71595000000000009</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.76428333333333331</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.8448</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.71130000000000004</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.76626666666666665</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
@@ -3565,30 +3611,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B49FAB-0ACA-47EA-837C-9E6960F12538}">
-  <dimension ref="B2:Z31"/>
+  <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20:Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3630,840 +3676,1056 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="19">
         <f>AVERAGE(F5:G5)</f>
         <v>0.58860000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="19">
         <v>0.86890000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="19">
         <v>0.30830000000000002</v>
       </c>
-      <c r="I5" s="4">
+      <c r="H5" s="20"/>
+      <c r="I5" s="19">
         <f>AVERAGE(J5:K5)</f>
         <v>0.53825000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="19">
         <v>0.81669999999999998</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="19">
         <v>0.25979999999999998</v>
       </c>
-      <c r="M5" s="4">
+      <c r="L5" s="20"/>
+      <c r="M5" s="19">
         <f>AVERAGE(N5:O5)</f>
         <v>0.53659999999999997</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="19">
         <v>0.78029999999999999</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="19">
         <v>0.29289999999999999</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="19">
         <f>AVERAGE(E5,I5,M5)</f>
         <v>0.55448333333333333</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="19">
         <f>AVERAGE(F6:G6)</f>
         <v>0.62790000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="19">
         <v>0.81079999999999997</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="19">
         <v>0.44500000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="H6" s="20"/>
+      <c r="I6" s="19">
         <f>AVERAGE(J6:K6)</f>
         <v>0.56814999999999993</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="19">
         <v>0.72509999999999997</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="19">
         <v>0.41120000000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="L6" s="20"/>
+      <c r="M6" s="19">
         <f>AVERAGE(N6:O6)</f>
         <v>0.58994999999999997</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="19">
         <v>0.69020000000000004</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="19">
         <v>0.48970000000000002</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="19">
         <f>AVERAGE(E6,I6,M6)</f>
         <v>0.59533333333333338</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="19">
         <f>AVERAGE(F7:G7)</f>
         <v>0.61434999999999995</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="19">
         <v>0.86539999999999995</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="19">
         <v>0.36330000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="H7" s="20"/>
+      <c r="I7" s="19">
         <f>AVERAGE(J7:K7)</f>
         <v>0.56390000000000007</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="19">
         <v>0.79890000000000005</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="19">
         <v>0.32890000000000003</v>
       </c>
-      <c r="M7" s="4">
+      <c r="L7" s="20"/>
+      <c r="M7" s="19">
         <f>AVERAGE(N7:O7)</f>
         <v>0.57725000000000004</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="19">
         <v>0.77359999999999995</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="19">
         <v>0.38090000000000002</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="P7" s="20"/>
+      <c r="Q7" s="19">
         <f>AVERAGE(E7,I7,M7)</f>
         <v>0.58516666666666672</v>
       </c>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="19">
         <f>AVERAGE(F8:G8)</f>
         <v>0.63109999999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="19">
         <v>0.82720000000000005</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="19">
         <v>0.435</v>
       </c>
-      <c r="I8" s="4">
+      <c r="H8" s="20"/>
+      <c r="I8" s="19">
         <f>AVERAGE(J8:K8)</f>
         <v>0.5655</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="19">
         <v>0.74690000000000001</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="19">
         <v>0.3841</v>
       </c>
-      <c r="M8" s="4">
+      <c r="L8" s="20"/>
+      <c r="M8" s="19">
         <f>AVERAGE(N8:O8)</f>
         <v>0.59040000000000004</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="19">
         <v>0.7298</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="19">
         <v>0.45100000000000001</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19">
         <f>AVERAGE(E8,I8,M8)</f>
         <v>0.59566666666666668</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="19">
         <f>AVERAGE(F9:G9)</f>
         <v>0.6159</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="19">
         <v>0.83509999999999995</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="19">
         <v>0.3967</v>
       </c>
-      <c r="I9" s="4">
+      <c r="H9" s="20"/>
+      <c r="I9" s="19">
         <f>AVERAGE(J9:K9)</f>
         <v>0.55774999999999997</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="19">
         <v>0.76639999999999997</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="19">
         <v>0.34910000000000002</v>
       </c>
-      <c r="M9" s="4">
+      <c r="L9" s="20"/>
+      <c r="M9" s="19">
         <f>AVERAGE(N9:O9)</f>
         <v>0.58135000000000003</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="19">
         <v>0.73319999999999996</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="19">
         <v>0.42949999999999999</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="20"/>
+      <c r="Q9" s="19">
         <f>AVERAGE(E9,I9,M9)</f>
         <v>0.58499999999999996</v>
       </c>
     </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+    </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
-        <v>1</v>
+      <c r="C12" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>0.5</v>
+        <v>0.66635</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>0.8619</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>0.4708</v>
       </c>
       <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>0.5</v>
+        <v>0.54415000000000002</v>
       </c>
       <c r="J12" s="4">
-        <v>0</v>
+        <v>0.76719999999999999</v>
       </c>
       <c r="K12" s="4">
-        <v>1</v>
+        <v>0.3211</v>
       </c>
       <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>0.50039999999999996</v>
+        <v>0.56974999999999998</v>
       </c>
       <c r="N12" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>0.7702</v>
       </c>
       <c r="O12" s="4">
-        <v>0.99909999999999999</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>0.50013333333333332</v>
+        <v>0.5934166666666667</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>0.47815000000000002</v>
+        <v>0.70235000000000003</v>
       </c>
       <c r="F13" s="4">
-        <v>0.34460000000000002</v>
+        <v>0.82550000000000001</v>
       </c>
       <c r="G13" s="4">
-        <v>0.61170000000000002</v>
+        <v>0.57920000000000005</v>
       </c>
       <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>0.51885000000000003</v>
+        <v>0.59040000000000004</v>
       </c>
       <c r="J13" s="4">
-        <v>0.38679999999999998</v>
+        <v>0.72670000000000001</v>
       </c>
       <c r="K13" s="4">
-        <v>0.65090000000000003</v>
+        <v>0.4541</v>
       </c>
       <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>0.49530000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="N13" s="4">
-        <v>0.35270000000000001</v>
+        <v>0.70369999999999999</v>
       </c>
       <c r="O13" s="4">
-        <v>0.63790000000000002</v>
+        <v>0.51029999999999998</v>
       </c>
       <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>0.49743333333333339</v>
+        <v>0.63324999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>0.5111</v>
+        <v>0.71150000000000002</v>
       </c>
       <c r="F14" s="4">
-        <v>0.2014</v>
+        <v>0.84550000000000003</v>
       </c>
       <c r="G14" s="4">
-        <v>0.82079999999999997</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>0.50405</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="J14" s="4">
-        <v>0.2303</v>
+        <v>0.7339</v>
       </c>
       <c r="K14" s="4">
-        <v>0.77780000000000005</v>
+        <v>0.4541</v>
       </c>
       <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>0.51375000000000004</v>
+        <v>0.61085</v>
       </c>
       <c r="N14" s="4">
-        <v>0.218</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="O14" s="4">
-        <v>0.8095</v>
+        <v>0.5121</v>
       </c>
       <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>0.50963333333333338</v>
-      </c>
-      <c r="T14" s="10"/>
+        <v>0.63878333333333337</v>
+      </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>0.50455000000000005</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.28910000000000002</v>
+        <v>0.70185000000000008</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.82450000000000001</v>
       </c>
       <c r="G15" s="4">
-        <v>0.72</v>
+        <v>0.57920000000000005</v>
       </c>
       <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>0.51229999999999998</v>
+        <v>0.5917</v>
       </c>
       <c r="J15" s="4">
-        <v>0.28710000000000002</v>
+        <v>0.72670000000000001</v>
       </c>
       <c r="K15" s="4">
-        <v>0.73750000000000004</v>
+        <v>0.45669999999999999</v>
       </c>
       <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>0.49185000000000001</v>
+        <v>0.60315000000000007</v>
       </c>
       <c r="N15" s="4">
-        <v>0.25590000000000002</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="O15" s="4">
-        <v>0.7278</v>
+        <v>0.52110000000000001</v>
       </c>
       <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>0.50290000000000001</v>
+        <v>0.63223333333333342</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="e">
         <f>AVERAGE(F16:G16)</f>
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.28039999999999998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.74419999999999997</v>
-      </c>
-      <c r="I16" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4" t="e">
         <f>AVERAGE(J16:K16)</f>
-        <v>0.50205</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.2482</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.75590000000000002</v>
-      </c>
-      <c r="M16" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4" t="e">
         <f>AVERAGE(N16:O16)</f>
-        <v>0.49775000000000003</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.25340000000000001</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.74209999999999998</v>
-      </c>
-      <c r="Q16" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="4" t="e">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>0.50403333333333322</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
-        <v>2</v>
+      <c r="C19" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>0.50214999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="4">
-        <v>0.1701</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>0.83420000000000005</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>0.49969999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="4">
-        <v>0.1613</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>0.83809999999999996</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>0.49843999999999999</v>
+        <v>0.50039999999999996</v>
       </c>
       <c r="N19" s="4">
-        <v>0.18010000000000001</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="O19" s="4">
-        <v>0.81677999999999995</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>0.50009666666666663</v>
+        <v>0.50013333333333332</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>0.48365000000000002</v>
+        <v>0.47815000000000002</v>
       </c>
       <c r="F20" s="4">
-        <v>0.309</v>
+        <v>0.34460000000000002</v>
       </c>
       <c r="G20" s="4">
-        <v>0.6583</v>
+        <v>0.61170000000000002</v>
       </c>
       <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>0.49320000000000003</v>
+        <v>0.51885000000000003</v>
       </c>
       <c r="J20" s="4">
-        <v>0.3276</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="K20" s="4">
-        <v>0.65880000000000005</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>0.49765000000000004</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="N20" s="4">
-        <v>0.35020000000000001</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="O20" s="4">
-        <v>0.64510000000000001</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>0.49149999999999999</v>
-      </c>
-      <c r="X20" s="8"/>
-      <c r="Z20" s="8"/>
+        <v>0.49743333333333339</v>
+      </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>0.50875000000000004</v>
+        <v>0.5111</v>
       </c>
       <c r="F21" s="4">
-        <v>0.3967</v>
+        <v>0.2014</v>
       </c>
       <c r="G21" s="4">
-        <v>0.62080000000000002</v>
+        <v>0.82079999999999997</v>
       </c>
       <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>0.52749999999999997</v>
+        <v>0.50405</v>
       </c>
       <c r="J21" s="4">
-        <v>0.4461</v>
+        <v>0.2303</v>
       </c>
       <c r="K21" s="4">
-        <v>0.6089</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>0.50134999999999996</v>
+        <v>0.51375000000000004</v>
       </c>
       <c r="N21" s="4">
-        <v>0.38550000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="O21" s="4">
-        <v>0.61719999999999997</v>
+        <v>0.8095</v>
       </c>
       <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>0.51253333333333329</v>
-      </c>
-      <c r="X21" s="8"/>
-      <c r="Z21" s="8"/>
+        <v>0.50963333333333338</v>
+      </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.26129999999999998</v>
+        <v>0.50455000000000005</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.28910000000000002</v>
       </c>
       <c r="G22" s="4">
-        <v>0.72670000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>0.49685000000000001</v>
+        <v>0.51229999999999998</v>
       </c>
       <c r="J22" s="4">
-        <v>0.2571</v>
+        <v>0.28710000000000002</v>
       </c>
       <c r="K22" s="4">
-        <v>0.73660000000000003</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>0.51834999999999998</v>
+        <v>0.49185000000000001</v>
       </c>
       <c r="N22" s="4">
-        <v>0.255</v>
+        <v>0.25590000000000002</v>
       </c>
       <c r="O22" s="4">
-        <v>0.78169999999999995</v>
+        <v>0.7278</v>
       </c>
       <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>0.50306666666666666</v>
-      </c>
-      <c r="T22" s="10"/>
-      <c r="X22" s="8"/>
-      <c r="Z22" s="8"/>
+        <v>0.50290000000000001</v>
+      </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>0.5</v>
+        <v>0.51229999999999998</v>
       </c>
       <c r="F23" s="4">
-        <v>0.20749999999999999</v>
+        <v>0.28039999999999998</v>
       </c>
       <c r="G23" s="4">
-        <v>0.79249999999999998</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>0.50864999999999994</v>
+        <v>0.50205</v>
       </c>
       <c r="J23" s="4">
-        <v>0.2457</v>
+        <v>0.2482</v>
       </c>
       <c r="K23" s="4">
-        <v>0.77159999999999995</v>
+        <v>0.75590000000000002</v>
       </c>
       <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>0.50459999999999994</v>
+        <v>0.49775000000000003</v>
       </c>
       <c r="N23" s="4">
-        <v>0.20960000000000001</v>
+        <v>0.25340000000000001</v>
       </c>
       <c r="O23" s="4">
-        <v>0.79959999999999998</v>
-      </c>
-      <c r="P23" s="5"/>
+        <v>0.74209999999999998</v>
+      </c>
       <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>0.50441666666666662</v>
-      </c>
-      <c r="X23" s="8"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="X24" s="8"/>
-      <c r="Z24" s="8"/>
+        <v>0.50403333333333322</v>
+      </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
-        <v>12</v>
+      <c r="C26" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>0.6794</v>
+        <v>0.50214999999999999</v>
       </c>
       <c r="F26" s="4">
-        <v>0.8246</v>
+        <v>0.1701</v>
       </c>
       <c r="G26" s="4">
-        <v>0.53420000000000001</v>
+        <v>0.83420000000000005</v>
       </c>
       <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>0.55559999999999998</v>
+        <v>0.49969999999999998</v>
       </c>
       <c r="J26" s="4">
-        <v>0.72099999999999997</v>
+        <v>0.1613</v>
       </c>
       <c r="K26" s="4">
-        <v>0.39019999999999999</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>0.63345000000000007</v>
+        <v>0.49843999999999999</v>
       </c>
       <c r="N26" s="4">
-        <v>0.77190000000000003</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="O26" s="4">
-        <v>0.495</v>
+        <v>0.81677999999999995</v>
       </c>
       <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>0.62281666666666669</v>
+        <v>0.50009666666666663</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>0.64684999999999993</v>
+        <v>0.48365000000000002</v>
       </c>
       <c r="F27" s="4">
-        <v>0.79949999999999999</v>
+        <v>0.309</v>
       </c>
       <c r="G27" s="4">
-        <v>0.49419999999999997</v>
+        <v>0.6583</v>
       </c>
       <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>0.57555000000000001</v>
+        <v>0.49320000000000003</v>
       </c>
       <c r="J27" s="4">
-        <v>0.71450000000000002</v>
+        <v>0.3276</v>
       </c>
       <c r="K27" s="4">
-        <v>0.43659999999999999</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>0.59150000000000003</v>
+        <v>0.49765000000000004</v>
       </c>
       <c r="N27" s="4">
-        <v>0.67</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="O27" s="4">
-        <v>0.51300000000000001</v>
+        <v>0.64510000000000001</v>
       </c>
       <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>0.60463333333333324</v>
-      </c>
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>0.63454999999999995</v>
+        <v>0.50875000000000004</v>
       </c>
       <c r="F28" s="4">
-        <v>0.74739999999999995</v>
+        <v>0.3967</v>
       </c>
       <c r="G28" s="4">
-        <v>0.52170000000000005</v>
+        <v>0.62080000000000002</v>
       </c>
       <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>0.56100000000000005</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="J28" s="4">
-        <v>0.66180000000000005</v>
+        <v>0.4461</v>
       </c>
       <c r="K28" s="4">
-        <v>0.4602</v>
+        <v>0.6089</v>
       </c>
       <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>0.58909999999999996</v>
+        <v>0.50134999999999996</v>
       </c>
       <c r="N28" s="4">
-        <v>0.62119999999999997</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="O28" s="4">
-        <v>0.55700000000000005</v>
+        <v>0.61719999999999997</v>
       </c>
       <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>0.59488333333333332</v>
-      </c>
+        <v>0.51253333333333329</v>
+      </c>
+      <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>0.6298999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F29" s="4">
-        <v>0.72309999999999997</v>
+        <v>0.26129999999999998</v>
       </c>
       <c r="G29" s="4">
-        <v>0.53669999999999995</v>
+        <v>0.72670000000000001</v>
       </c>
       <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>0.5585</v>
+        <v>0.49685000000000001</v>
       </c>
       <c r="J29" s="4">
-        <v>0.6139</v>
+        <v>0.2571</v>
       </c>
       <c r="K29" s="4">
-        <v>0.50309999999999999</v>
+        <v>0.73660000000000003</v>
       </c>
       <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>0.6470499999999999</v>
+        <v>0.51834999999999998</v>
       </c>
       <c r="N29" s="4">
-        <v>0.60519999999999996</v>
+        <v>0.255</v>
       </c>
       <c r="O29" s="4">
-        <v>0.68889999999999996</v>
+        <v>0.78169999999999995</v>
       </c>
       <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>0.61181666666666656</v>
-      </c>
+        <v>0.50306666666666666</v>
+      </c>
+      <c r="T29" s="10"/>
+      <c r="X29" s="8"/>
+      <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>0.62685000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="4">
-        <v>0.80120000000000002</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="G30" s="4">
-        <v>0.45250000000000001</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>0.56074999999999997</v>
+        <v>0.50864999999999994</v>
       </c>
       <c r="J30" s="4">
-        <v>0.71209999999999996</v>
+        <v>0.2457</v>
       </c>
       <c r="K30" s="4">
-        <v>0.40939999999999999</v>
+        <v>0.77159999999999995</v>
       </c>
       <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>0.58455000000000001</v>
+        <v>0.50459999999999994</v>
       </c>
       <c r="N30" s="4">
-        <v>0.66239999999999999</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="O30" s="4">
-        <v>0.50670000000000004</v>
-      </c>
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="P30" s="5"/>
       <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
+        <v>0.50441666666666662</v>
+      </c>
+      <c r="X30" s="8"/>
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="X31" s="8"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4">
+        <f>AVERAGE(F33:G33)</f>
+        <v>0.6794</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.8246</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="I33" s="4">
+        <f>AVERAGE(J33:K33)</f>
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="M33" s="4">
+        <f>AVERAGE(N33:O33)</f>
+        <v>0.63345000000000007</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>AVERAGE(E33,I33,M33)</f>
+        <v>0.62281666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4">
+        <f>AVERAGE(F34:G34)</f>
+        <v>0.64684999999999993</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="I34" s="4">
+        <f>AVERAGE(J34:K34)</f>
+        <v>0.57555000000000001</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="M34" s="4">
+        <f>AVERAGE(N34:O34)</f>
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>AVERAGE(E34,I34,M34)</f>
+        <v>0.60463333333333324</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="21"/>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4">
+        <f>AVERAGE(F35:G35)</f>
+        <v>0.63454999999999995</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="I35" s="4">
+        <f>AVERAGE(J35:K35)</f>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.4602</v>
+      </c>
+      <c r="M35" s="4">
+        <f>AVERAGE(N35:O35)</f>
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>AVERAGE(E35,I35,M35)</f>
+        <v>0.59488333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="21"/>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
+        <f>AVERAGE(F36:G36)</f>
+        <v>0.6298999999999999</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="I36" s="4">
+        <f>AVERAGE(J36:K36)</f>
+        <v>0.5585</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.6139</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="M36" s="4">
+        <f>AVERAGE(N36:O36)</f>
+        <v>0.6470499999999999</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>AVERAGE(E36,I36,M36)</f>
+        <v>0.61181666666666656</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="21"/>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4">
+        <f>AVERAGE(F37:G37)</f>
+        <v>0.62685000000000002</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="I37" s="4">
+        <f>AVERAGE(J37:K37)</f>
+        <v>0.56074999999999997</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="M37" s="4">
+        <f>AVERAGE(N37:O37)</f>
+        <v>0.58455000000000001</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>AVERAGE(E37,I37,M37)</f>
         <v>0.59071666666666667</v>
       </c>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C19:C23"/>
+  <mergeCells count="8">
     <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C33:C37"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4476,28 +4738,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CEDD4F-00F4-4759-BADF-925A3EF47615}">
   <dimension ref="A2:Z141"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4539,7 +4801,7 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4581,7 +4843,7 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4621,7 +4883,7 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4661,7 +4923,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4701,7 +4963,7 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4742,7 +5004,7 @@
       <c r="T9" s="10"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4784,7 +5046,7 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -4825,7 +5087,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -4865,7 +5127,7 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4905,7 +5167,7 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -4945,7 +5207,7 @@
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -4987,7 +5249,7 @@
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -5025,11 +5287,9 @@
         <f>AVERAGE(E20,I20,M20)</f>
         <v>0.5022833333333333</v>
       </c>
-      <c r="X20" s="8"/>
-      <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -5067,11 +5327,9 @@
         <f>AVERAGE(E21,I21,M21)</f>
         <v>0.49468333333333331</v>
       </c>
-      <c r="X21" s="8"/>
-      <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -5109,11 +5367,9 @@
         <f>AVERAGE(E22,I22,M22)</f>
         <v>0.50298333333333334</v>
       </c>
-      <c r="X22" s="8"/>
-      <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -5152,16 +5408,14 @@
         <f>AVERAGE(E23,I23,M23)</f>
         <v>0.50368333333333337</v>
       </c>
-      <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="T24" s="10"/>
-      <c r="X24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -5203,7 +5457,7 @@
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -5243,7 +5497,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -5283,7 +5537,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -5323,7 +5577,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -5368,51 +5622,51 @@
       <c r="M31" s="13"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="20"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="26"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="K79" s="16" t="s">
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="K79" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="P79" s="17" t="s">
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="P79" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
       <c r="T79" s="1" t="s">
         <v>3</v>
       </c>
@@ -5447,7 +5701,7 @@
       </c>
     </row>
     <row r="82" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -5478,7 +5732,7 @@
       </c>
     </row>
     <row r="83" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C83" s="16"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5522,7 +5776,7 @@
       </c>
     </row>
     <row r="84" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C84" s="16"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="3" t="s">
         <v>9</v>
       </c>
@@ -5566,7 +5820,7 @@
       </c>
     </row>
     <row r="85" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C85" s="16"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="3" t="s">
         <v>10</v>
       </c>
@@ -5595,7 +5849,7 @@
       </c>
     </row>
     <row r="86" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C86" s="16"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="3" t="s">
         <v>11</v>
       </c>
@@ -5624,7 +5878,7 @@
       </c>
     </row>
     <row r="89" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5655,7 +5909,7 @@
       </c>
     </row>
     <row r="90" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C90" s="16"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="3" t="s">
         <v>8</v>
       </c>
@@ -5699,7 +5953,7 @@
       </c>
     </row>
     <row r="91" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C91" s="16"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="3" t="s">
         <v>9</v>
       </c>
@@ -5743,7 +5997,7 @@
       </c>
     </row>
     <row r="92" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C92" s="16"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="3" t="s">
         <v>10</v>
       </c>
@@ -5772,7 +6026,7 @@
       </c>
     </row>
     <row r="93" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C93" s="16"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="3" t="s">
         <v>11</v>
       </c>
@@ -5801,7 +6055,7 @@
       </c>
     </row>
     <row r="96" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -5832,7 +6086,7 @@
       </c>
     </row>
     <row r="97" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C97" s="16"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="3" t="s">
         <v>8</v>
       </c>
@@ -5876,7 +6130,7 @@
       </c>
     </row>
     <row r="98" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C98" s="16"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="3" t="s">
         <v>9</v>
       </c>
@@ -5920,7 +6174,7 @@
       </c>
     </row>
     <row r="99" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C99" s="16"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="3" t="s">
         <v>10</v>
       </c>
@@ -5949,7 +6203,7 @@
       </c>
     </row>
     <row r="100" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C100" s="16"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5979,7 +6233,7 @@
       </c>
     </row>
     <row r="103" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -6010,7 +6264,7 @@
       </c>
     </row>
     <row r="104" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C104" s="16"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="3" t="s">
         <v>8</v>
       </c>
@@ -6039,7 +6293,7 @@
       </c>
     </row>
     <row r="105" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C105" s="16"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="3" t="s">
         <v>9</v>
       </c>
@@ -6068,7 +6322,7 @@
       </c>
     </row>
     <row r="106" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C106" s="16"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="3" t="s">
         <v>10</v>
       </c>
@@ -6097,7 +6351,7 @@
       </c>
     </row>
     <row r="107" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C107" s="16"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="3" t="s">
         <v>11</v>
       </c>
@@ -6126,21 +6380,21 @@
       </c>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F113" s="16" t="s">
+      <c r="F113" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="K113" s="16" t="s">
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="K113" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="P113" s="17" t="s">
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="P113" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="17"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
       <c r="T113" s="1" t="s">
         <v>3</v>
       </c>
@@ -6175,7 +6429,7 @@
       </c>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -6218,7 +6472,7 @@
       </c>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C117" s="16"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="3" t="s">
         <v>8</v>
       </c>
@@ -6259,7 +6513,7 @@
       </c>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C118" s="16"/>
+      <c r="C118" s="21"/>
       <c r="D118" s="3" t="s">
         <v>9</v>
       </c>
@@ -6301,7 +6555,7 @@
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C119" s="16"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="3" t="s">
         <v>10</v>
       </c>
@@ -6342,7 +6596,7 @@
       </c>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C120" s="16"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="3" t="s">
         <v>11</v>
       </c>
@@ -6383,7 +6637,7 @@
       </c>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -6426,7 +6680,7 @@
       </c>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C124" s="16"/>
+      <c r="C124" s="21"/>
       <c r="D124" s="3" t="s">
         <v>8</v>
       </c>
@@ -6467,7 +6721,7 @@
       </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C125" s="16"/>
+      <c r="C125" s="21"/>
       <c r="D125" s="3" t="s">
         <v>9</v>
       </c>
@@ -6508,7 +6762,7 @@
       </c>
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C126" s="16"/>
+      <c r="C126" s="21"/>
       <c r="D126" s="3" t="s">
         <v>10</v>
       </c>
@@ -6549,7 +6803,7 @@
       </c>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C127" s="16"/>
+      <c r="C127" s="21"/>
       <c r="D127" s="3" t="s">
         <v>11</v>
       </c>
@@ -6590,7 +6844,7 @@
       </c>
     </row>
     <row r="130" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -6633,7 +6887,7 @@
       </c>
     </row>
     <row r="131" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C131" s="16"/>
+      <c r="C131" s="21"/>
       <c r="D131" s="3" t="s">
         <v>8</v>
       </c>
@@ -6674,7 +6928,7 @@
       </c>
     </row>
     <row r="132" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C132" s="16"/>
+      <c r="C132" s="21"/>
       <c r="D132" s="3" t="s">
         <v>9</v>
       </c>
@@ -6715,7 +6969,7 @@
       </c>
     </row>
     <row r="133" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C133" s="16"/>
+      <c r="C133" s="21"/>
       <c r="D133" s="3" t="s">
         <v>10</v>
       </c>
@@ -6756,7 +7010,7 @@
       </c>
     </row>
     <row r="134" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C134" s="16"/>
+      <c r="C134" s="21"/>
       <c r="D134" s="3" t="s">
         <v>11</v>
       </c>
@@ -6798,7 +7052,7 @@
       </c>
     </row>
     <row r="137" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -6829,7 +7083,7 @@
       </c>
     </row>
     <row r="138" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C138" s="16"/>
+      <c r="C138" s="21"/>
       <c r="D138" s="3" t="s">
         <v>8</v>
       </c>
@@ -6858,7 +7112,7 @@
       </c>
     </row>
     <row r="139" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C139" s="16"/>
+      <c r="C139" s="21"/>
       <c r="D139" s="3" t="s">
         <v>9</v>
       </c>
@@ -6887,7 +7141,7 @@
       </c>
     </row>
     <row r="140" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C140" s="16"/>
+      <c r="C140" s="21"/>
       <c r="D140" s="3" t="s">
         <v>10</v>
       </c>
@@ -6916,7 +7170,7 @@
       </c>
     </row>
     <row r="141" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C141" s="16"/>
+      <c r="C141" s="21"/>
       <c r="D141" s="3" t="s">
         <v>11</v>
       </c>
@@ -6979,28 +7233,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273683D-9349-47F5-A914-A6E49DBBA2D4}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -7042,7 +7296,7 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -7084,419 +7338,672 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.80764999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.66310000000000002</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.71094999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.80774999999999997</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.66294999999999993</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.66474999999999995</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.71181666666666654</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.80564999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.66159999999999997</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.751</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.66389999999999993</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.71038333333333326</v>
       </c>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.65945000000000009</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.66260000000000008</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.71201666666666663</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.51855000000000007</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.755</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.59084999999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.7681</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.55019999999999991</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.51439000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.26128000000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.49695</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.51144666666666672</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.50495000000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.1825</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.51985000000000003</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.51156666666666661</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.50764999999999993</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.57904999999999995</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.51524999999999999</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.3468</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.53398333333333337</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.4945</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.8458</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.54584999999999995</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.2238</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.8679</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.51334999999999997</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.1489</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.51789999999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="X17">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="Y17">
+        <v>0.59729999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="X18">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="Y18">
+        <v>0.61470000000000002</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.56204999999999994</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.59729999999999994</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.59491666666666665</v>
+      </c>
+      <c r="W19">
+        <v>0.5766</v>
+      </c>
+      <c r="X19">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="Y19">
+        <v>0.60814999999999997</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.47184999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.43419999999999997</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.59575</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X20" s="8"/>
+        <v>0.56076666666666675</v>
+      </c>
+      <c r="W20">
+        <v>0.5202</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="Y20">
+        <v>0.61230000000000007</v>
+      </c>
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.47694999999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.4592</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.61165000000000003</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.55989999999999995</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.60814999999999997</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.5766</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="8"/>
-      <c r="Z21" s="8"/>
+        <v>0.56558333333333333</v>
+      </c>
+      <c r="W21">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="X21">
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="Y21">
+        <v>0.61580000000000001</v>
+      </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.47545000000000004</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.61230000000000007</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.5202</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="8"/>
-      <c r="Z22" s="8"/>
+        <v>0.56145</v>
+      </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.47994999999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.61345000000000005</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.58940000000000003</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="5"/>
-      <c r="X23" s="8"/>
-      <c r="Z23" s="8"/>
+        <v>0.56973333333333331</v>
+      </c>
+      <c r="V23">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="W23">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="X23">
+        <v>0.5766</v>
+      </c>
+      <c r="Y23">
+        <v>0.5202</v>
+      </c>
+      <c r="Z23">
+        <v>0.64219999999999999</v>
+      </c>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="S24" s="5"/>
-      <c r="X24" s="8"/>
-      <c r="Z24" s="8"/>
+      <c r="V24">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="W24">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="X24">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="Z24">
+        <v>0.58940000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>0.59729999999999994</v>
+      </c>
+      <c r="W25">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="X25">
+        <v>0.60814999999999997</v>
+      </c>
+      <c r="Y25">
+        <v>0.61230000000000007</v>
+      </c>
+      <c r="Z25">
+        <v>0.61580000000000001</v>
+      </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -7526,7 +8033,7 @@
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -7554,7 +8061,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -7582,7 +8089,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -7610,7 +8117,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -7660,8 +8167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB62CAC-DE19-41CF-86AA-CEEB3C8CECB3}">
   <dimension ref="B2:Z82"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7670,21 +8177,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
@@ -7726,457 +8233,710 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.75910000000000011</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.6048</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.62975000000000003</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.7752</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.66455000000000009</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.75120000000000009</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.59684999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.751</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.60724999999999996</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.65176666666666672</v>
       </c>
       <c r="T6" s="10"/>
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.75164999999999993</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.59055000000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.4501</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.65120000000000011</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.74495</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.58704999999999996</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.755</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.41909999999999997</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.5968</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.4259</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="5"/>
+        <v>0.64293333333333325</v>
+      </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.74865000000000004</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.59135000000000004</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.60955000000000004</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.44469999999999998</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.64985000000000004</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.51265000000000005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.58539999999999992</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.4849</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.7026</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.54218333333333335</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.56614999999999993</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.3528</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.26939999999999997</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.53398333333333337</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.52075000000000005</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.54354999999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.31559999999999999</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.53060000000000007</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.5524</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.79259999999999997</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.52234999999999998</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.7762</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.52934999999999999</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.52390000000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.37540000000000001</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.54986666666666661</v>
       </c>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
       <c r="T17" s="10"/>
       <c r="V17" s="10"/>
     </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="W18">
+        <v>0.5615</v>
+      </c>
+      <c r="X18">
+        <v>0.59975000000000001</v>
+      </c>
+    </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.45904999999999996</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.59004999999999996</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.7339</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="M19" s="17">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.59975000000000001</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0.5615</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.54961666666666664</v>
+      </c>
+      <c r="V19">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="W19">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="X19">
+        <v>0.59845000000000004</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.59845000000000004</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X20" s="8"/>
+        <v>0.5565500000000001</v>
+      </c>
+      <c r="V20" s="27">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="W20" s="27">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="X20" s="27">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="Y20" s="27"/>
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.4718</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.61314999999999997</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="8"/>
+        <v>0.56658333333333333</v>
+      </c>
+      <c r="V21" s="27">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="W21" s="27">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="X21" s="27">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="Y21" s="27"/>
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.47035000000000005</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="8"/>
+        <v>0.55511666666666659</v>
+      </c>
+      <c r="V22" s="27">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="W22" s="27">
+        <v>0.5696</v>
+      </c>
+      <c r="X22" s="27">
+        <v>0.61304999999999998</v>
+      </c>
+      <c r="Y22" s="27"/>
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.47375</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.60794999999999999</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.7802</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.43569999999999998</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.61304999999999998</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.5696</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="5"/>
+        <v>0.56491666666666662</v>
+      </c>
       <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="S24" s="5"/>
       <c r="T24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="X24" s="8"/>
-      <c r="Z24" s="8"/>
+      <c r="V24">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="W24">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="X24" s="27">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="Y24" s="27">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="Z24" s="27">
+        <v>0.65649999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>0.5615</v>
+      </c>
+      <c r="W25">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="X25" s="27">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="Y25" s="27">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Z25" s="27">
+        <v>0.5696</v>
+      </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -8204,9 +8964,24 @@
         <f>AVERAGE(E26,I26,M26)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V26">
+        <v>0.59975000000000001</v>
+      </c>
+      <c r="W26">
+        <v>0.59845000000000004</v>
+      </c>
+      <c r="X26" s="27">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="Z26" s="27">
+        <v>0.61304999999999998</v>
+      </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -8234,7 +9009,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -8262,7 +9037,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -8290,7 +9065,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -8321,21 +9096,21 @@
       <c r="C31" s="12"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="K54" s="16" t="s">
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="K54" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="P54" s="17" t="s">
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="P54" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
       <c r="T54" s="1" t="s">
         <v>3</v>
       </c>
@@ -8370,7 +9145,7 @@
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -8413,7 +9188,7 @@
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C58" s="16"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
@@ -8454,7 +9229,7 @@
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="16"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
@@ -8495,7 +9270,7 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="16"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="3" t="s">
         <v>10</v>
       </c>
@@ -8536,7 +9311,7 @@
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="16"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="3" t="s">
         <v>11</v>
       </c>
@@ -8577,7 +9352,7 @@
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -8620,7 +9395,7 @@
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C65" s="16"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="3" t="s">
         <v>8</v>
       </c>
@@ -8661,7 +9436,7 @@
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C66" s="16"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="3" t="s">
         <v>9</v>
       </c>
@@ -8702,7 +9477,7 @@
       </c>
     </row>
     <row r="67" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C67" s="16"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="3" t="s">
         <v>10</v>
       </c>
@@ -8743,7 +9518,7 @@
       </c>
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C68" s="16"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="3" t="s">
         <v>11</v>
       </c>
@@ -8784,7 +9559,7 @@
       </c>
     </row>
     <row r="71" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -8827,7 +9602,7 @@
       </c>
     </row>
     <row r="72" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="16"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
@@ -8868,7 +9643,7 @@
       </c>
     </row>
     <row r="73" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="16"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
@@ -8909,7 +9684,7 @@
       </c>
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="16"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="3" t="s">
         <v>10</v>
       </c>
@@ -8950,7 +9725,7 @@
       </c>
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C75" s="16"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="3" t="s">
         <v>11</v>
       </c>
@@ -8992,7 +9767,7 @@
       </c>
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -9035,7 +9810,7 @@
       </c>
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C79" s="16"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="3" t="s">
         <v>8</v>
       </c>
@@ -9076,7 +9851,7 @@
       </c>
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C80" s="16"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="3" t="s">
         <v>9</v>
       </c>
@@ -9117,7 +9892,7 @@
       </c>
     </row>
     <row r="81" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C81" s="16"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="3" t="s">
         <v>10</v>
       </c>
@@ -9158,7 +9933,7 @@
       </c>
     </row>
     <row r="82" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C82" s="16"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="3" t="s">
         <v>11</v>
       </c>
